--- a/TestData/LV_T2278_EventExpenseEmailNotificationRequestMoreInformationApproveAsFirstLevelApproverSet2.xlsx
+++ b/TestData/LV_T2278_EventExpenseEmailNotificationRequestMoreInformationApproveAsFirstLevelApproverSet2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2512B8-6506-434B-9EEF-0CE70F0F07F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FB6D68-3C34-4906-A182-0364AEA79AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -160,10 +160,10 @@
     <t>Dimitri Drone</t>
   </si>
   <si>
-    <t>Bingo@1234567</t>
-  </si>
-  <si>
     <t>FVATestOpportunity Admin</t>
+  </si>
+  <si>
+    <t>Bingo@12345</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -717,7 +717,7 @@
         <v>16</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>27</v>
@@ -773,7 +773,7 @@
         <v>16</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>27</v>
@@ -798,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +821,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -832,7 +832,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -842,8 +842,8 @@
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" tooltip="mailto:klulla@hl.com.test" display="mailto:klulla@hl.com.test" xr:uid="{F5167E44-EE84-48EC-B6E8-69243B861AB5}"/>
     <hyperlink ref="A2" r:id="rId2" tooltip="mailto:kspero@hl.com.test" display="mailto:kspero@hl.com.test" xr:uid="{D9C78D91-C519-47A3-80B2-C808030C1CD6}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{873F882F-38ED-48DD-8BEC-C4D6749440FB}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{970FB32F-609C-4DD4-8C49-C447E83C5994}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{7E5D6388-221A-4E7C-B105-47828C95F2F8}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{C2B8F146-E64E-4D48-924D-67EE48DD9101}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
